--- a/mycode/刷题统计 (Autosaved).xlsx
+++ b/mycode/刷题统计 (Autosaved).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25540" windowHeight="14180" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="540">
   <si>
     <t>1 binary search</t>
   </si>
@@ -1659,12 +1659,259 @@
   <si>
     <t>按照a里每个item的第二个数排序(就是把a.items这个iteration的每一个ele认作是x)</t>
   </si>
+  <si>
+    <t xml:space="preserve">x = [1,2,3,3,3]
+for ele in x:
+    dic[ele] = dic.setdefault(ele, 0) + 1
+print dic
+{1: 1, 2: 1, 3: 3}
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">collections </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">import  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>deque</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>append</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>appendleft</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>pop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>popleft</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t>reverse()¶</t>
+  </si>
+  <si>
+    <r>
+      <t>rotate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>extend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>iterable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>extendleft</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>iterable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1762,6 +2009,23 @@
       <sz val="9"/>
       <color rgb="FF000080"/>
       <name val="Menlo"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14.4"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="16">
@@ -2100,7 +2364,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
@@ -2192,6 +2456,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2234,6 +2501,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="79">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5618,7 +5886,7 @@
       <c r="B146" s="34" t="s">
         <v>339</v>
       </c>
-      <c r="C146" s="75" t="s">
+      <c r="C146" s="76" t="s">
         <v>350</v>
       </c>
       <c r="D146" s="34" t="s">
@@ -5647,7 +5915,7 @@
       <c r="A147" s="10">
         <v>145</v>
       </c>
-      <c r="C147" s="80"/>
+      <c r="C147" s="81"/>
       <c r="D147" s="34" t="s">
         <v>342</v>
       </c>
@@ -5674,7 +5942,7 @@
       <c r="A148" s="10">
         <v>146</v>
       </c>
-      <c r="C148" s="80"/>
+      <c r="C148" s="81"/>
       <c r="D148" s="34" t="s">
         <v>343</v>
       </c>
@@ -5701,7 +5969,7 @@
       <c r="A149" s="10">
         <v>147</v>
       </c>
-      <c r="C149" s="80"/>
+      <c r="C149" s="81"/>
       <c r="D149" s="34" t="s">
         <v>309</v>
       </c>
@@ -5725,7 +5993,7 @@
       <c r="A150" s="10">
         <v>148</v>
       </c>
-      <c r="C150" s="80"/>
+      <c r="C150" s="81"/>
       <c r="D150" s="34" t="s">
         <v>317</v>
       </c>
@@ -5749,7 +6017,7 @@
       <c r="A151" s="10">
         <v>149</v>
       </c>
-      <c r="C151" s="76"/>
+      <c r="C151" s="77"/>
       <c r="D151" s="34" t="s">
         <v>318</v>
       </c>
@@ -5773,7 +6041,7 @@
       <c r="A152" s="10">
         <v>150</v>
       </c>
-      <c r="C152" s="75" t="s">
+      <c r="C152" s="76" t="s">
         <v>356</v>
       </c>
       <c r="D152" s="34" t="s">
@@ -5799,7 +6067,7 @@
       <c r="A153" s="10">
         <v>151</v>
       </c>
-      <c r="C153" s="76"/>
+      <c r="C153" s="77"/>
       <c r="D153" s="34" t="s">
         <v>330</v>
       </c>
@@ -5826,7 +6094,7 @@
       <c r="A154" s="10">
         <v>152</v>
       </c>
-      <c r="C154" s="75" t="s">
+      <c r="C154" s="76" t="s">
         <v>351</v>
       </c>
       <c r="D154" s="34" t="s">
@@ -5852,7 +6120,7 @@
       <c r="A155" s="10">
         <v>153</v>
       </c>
-      <c r="C155" s="80"/>
+      <c r="C155" s="81"/>
       <c r="D155" s="34" t="s">
         <v>321</v>
       </c>
@@ -5876,7 +6144,7 @@
       <c r="A156" s="10">
         <v>154</v>
       </c>
-      <c r="C156" s="76"/>
+      <c r="C156" s="77"/>
       <c r="D156" s="34" t="s">
         <v>322</v>
       </c>
@@ -5894,7 +6162,7 @@
       <c r="A157" s="10">
         <v>155</v>
       </c>
-      <c r="C157" s="75" t="s">
+      <c r="C157" s="76" t="s">
         <v>358</v>
       </c>
       <c r="D157" s="34" t="s">
@@ -5923,7 +6191,7 @@
       <c r="A158" s="10">
         <v>156</v>
       </c>
-      <c r="C158" s="76"/>
+      <c r="C158" s="77"/>
       <c r="D158" s="34" t="s">
         <v>354</v>
       </c>
@@ -5948,7 +6216,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="40"/>
-      <c r="C159" s="77" t="s">
+      <c r="C159" s="78" t="s">
         <v>357</v>
       </c>
       <c r="D159" s="40" t="s">
@@ -5980,7 +6248,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="40"/>
-      <c r="C160" s="78"/>
+      <c r="C160" s="79"/>
       <c r="D160" s="40" t="s">
         <v>352</v>
       </c>
@@ -6008,7 +6276,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="40"/>
-      <c r="C161" s="78"/>
+      <c r="C161" s="79"/>
       <c r="D161" s="40" t="s">
         <v>324</v>
       </c>
@@ -6038,7 +6306,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="40"/>
-      <c r="C162" s="78"/>
+      <c r="C162" s="79"/>
       <c r="D162" s="40" t="s">
         <v>328</v>
       </c>
@@ -6068,7 +6336,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="40"/>
-      <c r="C163" s="79"/>
+      <c r="C163" s="80"/>
       <c r="D163" s="40" t="s">
         <v>331</v>
       </c>
@@ -6096,7 +6364,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="40"/>
-      <c r="C164" s="77" t="s">
+      <c r="C164" s="78" t="s">
         <v>359</v>
       </c>
       <c r="D164" s="40" t="s">
@@ -6128,7 +6396,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="40"/>
-      <c r="C165" s="78"/>
+      <c r="C165" s="79"/>
       <c r="D165" s="40" t="s">
         <v>337</v>
       </c>
@@ -6158,7 +6426,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="40"/>
-      <c r="C166" s="79"/>
+      <c r="C166" s="80"/>
       <c r="D166" s="40" t="s">
         <v>338</v>
       </c>
@@ -7295,7 +7563,7 @@
       <c r="A228" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B228" s="84" t="s">
+      <c r="B228" s="85" t="s">
         <v>423</v>
       </c>
       <c r="C228" s="49" t="s">
@@ -7324,7 +7592,7 @@
       <c r="A229" s="49">
         <v>223</v>
       </c>
-      <c r="B229" s="82"/>
+      <c r="B229" s="83"/>
       <c r="C229" s="49" t="s">
         <v>424</v>
       </c>
@@ -7351,7 +7619,7 @@
       <c r="A230" s="49">
         <v>224</v>
       </c>
-      <c r="B230" s="82"/>
+      <c r="B230" s="83"/>
       <c r="C230" s="49" t="s">
         <v>425</v>
       </c>
@@ -7378,7 +7646,7 @@
       <c r="A231" s="49">
         <v>225</v>
       </c>
-      <c r="B231" s="82"/>
+      <c r="B231" s="83"/>
       <c r="C231" s="49" t="s">
         <v>425</v>
       </c>
@@ -7405,7 +7673,7 @@
       <c r="A232" s="49">
         <v>226</v>
       </c>
-      <c r="B232" s="82"/>
+      <c r="B232" s="83"/>
       <c r="C232" s="49" t="s">
         <v>425</v>
       </c>
@@ -7432,7 +7700,7 @@
       <c r="A233" s="49">
         <v>227</v>
       </c>
-      <c r="B233" s="82"/>
+      <c r="B233" s="83"/>
       <c r="C233" s="49" t="s">
         <v>428</v>
       </c>
@@ -7465,7 +7733,7 @@
       <c r="A234" s="49">
         <v>228</v>
       </c>
-      <c r="B234" s="82"/>
+      <c r="B234" s="83"/>
       <c r="C234" s="49" t="s">
         <v>424</v>
       </c>
@@ -7495,7 +7763,7 @@
       <c r="A235" s="49">
         <v>229</v>
       </c>
-      <c r="B235" s="83"/>
+      <c r="B235" s="84"/>
       <c r="C235" s="57" t="s">
         <v>424</v>
       </c>
@@ -7528,7 +7796,7 @@
       <c r="A236" s="49">
         <v>230</v>
       </c>
-      <c r="B236" s="81" t="s">
+      <c r="B236" s="82" t="s">
         <v>426</v>
       </c>
       <c r="D236" s="58" t="s">
@@ -7557,7 +7825,7 @@
       <c r="A237" s="49">
         <v>231</v>
       </c>
-      <c r="B237" s="83"/>
+      <c r="B237" s="84"/>
       <c r="D237" s="57" t="s">
         <v>405</v>
       </c>
@@ -7584,7 +7852,7 @@
       <c r="A238" s="49">
         <v>232</v>
       </c>
-      <c r="B238" s="81" t="s">
+      <c r="B238" s="82" t="s">
         <v>427</v>
       </c>
       <c r="D238" s="58" t="s">
@@ -7616,7 +7884,7 @@
       <c r="A239" s="49">
         <v>233</v>
       </c>
-      <c r="B239" s="82"/>
+      <c r="B239" s="83"/>
       <c r="D239" s="49" t="s">
         <v>413</v>
       </c>
@@ -7643,7 +7911,7 @@
       <c r="A240" s="49">
         <v>234</v>
       </c>
-      <c r="B240" s="82"/>
+      <c r="B240" s="83"/>
       <c r="D240" s="49" t="s">
         <v>402</v>
       </c>
@@ -7668,7 +7936,7 @@
       <c r="A241" s="49">
         <v>235</v>
       </c>
-      <c r="B241" s="83"/>
+      <c r="B241" s="84"/>
       <c r="D241" s="57" t="s">
         <v>400</v>
       </c>
@@ -7696,7 +7964,7 @@
       <c r="A242" s="49">
         <v>236</v>
       </c>
-      <c r="B242" s="81" t="s">
+      <c r="B242" s="82" t="s">
         <v>433</v>
       </c>
       <c r="D242" s="58" t="s">
@@ -7710,7 +7978,7 @@
       <c r="A243" s="49">
         <v>237</v>
       </c>
-      <c r="B243" s="82"/>
+      <c r="B243" s="83"/>
       <c r="D243" s="49" t="s">
         <v>430</v>
       </c>
@@ -7722,7 +7990,7 @@
       <c r="A244" s="49">
         <v>238</v>
       </c>
-      <c r="B244" s="82"/>
+      <c r="B244" s="83"/>
       <c r="D244" s="49" t="s">
         <v>431</v>
       </c>
@@ -7734,7 +8002,7 @@
       <c r="A245" s="49">
         <v>239</v>
       </c>
-      <c r="B245" s="82"/>
+      <c r="B245" s="83"/>
       <c r="D245" s="49" t="s">
         <v>432</v>
       </c>
@@ -7746,7 +8014,7 @@
       <c r="A246" s="49">
         <v>240</v>
       </c>
-      <c r="B246" s="82"/>
+      <c r="B246" s="83"/>
       <c r="D246" s="54" t="s">
         <v>442</v>
       </c>
@@ -7758,7 +8026,7 @@
       <c r="A247" s="49">
         <v>241</v>
       </c>
-      <c r="B247" s="83"/>
+      <c r="B247" s="84"/>
     </row>
     <row r="248" spans="1:12" s="50" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A248" s="49">
@@ -9071,7 +9339,7 @@
     </row>
     <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="85" t="s">
+      <c r="B18" s="86" t="s">
         <v>256</v>
       </c>
       <c r="C18" s="1"/>
@@ -9105,7 +9373,7 @@
     </row>
     <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="86"/>
+      <c r="B19" s="87"/>
       <c r="C19" s="1">
         <v>100</v>
       </c>
@@ -9139,7 +9407,7 @@
     </row>
     <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="86"/>
+      <c r="B20" s="87"/>
       <c r="C20" s="1">
         <v>101</v>
       </c>
@@ -9167,7 +9435,7 @@
     </row>
     <row r="21" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="86"/>
+      <c r="B21" s="87"/>
       <c r="C21" s="1">
         <v>172</v>
       </c>
@@ -9428,7 +9696,7 @@
     </row>
     <row r="30" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="87" t="s">
+      <c r="B30" s="88" t="s">
         <v>297</v>
       </c>
       <c r="C30" s="1"/>
@@ -9464,7 +9732,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="87"/>
+      <c r="B31" s="88"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1">
         <v>628</v>
@@ -9498,7 +9766,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="88" t="s">
+      <c r="B32" s="89" t="s">
         <v>254</v>
       </c>
       <c r="C32" s="1">
@@ -9530,7 +9798,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="88"/>
+      <c r="B33" s="89"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1">
         <v>645</v>
@@ -9558,7 +9826,7 @@
       <c r="A34" t="s">
         <v>246</v>
       </c>
-      <c r="B34" s="88"/>
+      <c r="B34" s="89"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1">
         <v>448</v>
@@ -9586,7 +9854,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="88"/>
+      <c r="B35" s="89"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1">
         <v>442</v>
@@ -9611,7 +9879,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="88"/>
+      <c r="B36" s="89"/>
       <c r="C36" s="1">
         <v>633</v>
       </c>
@@ -9638,7 +9906,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="88"/>
+      <c r="B37" s="89"/>
       <c r="C37" s="1">
         <v>189</v>
       </c>
@@ -9665,7 +9933,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="88" t="s">
+      <c r="B38" s="89" t="s">
         <v>301</v>
       </c>
       <c r="C38" s="1">
@@ -9700,7 +9968,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="88"/>
+      <c r="B39" s="89"/>
       <c r="C39" s="1">
         <v>47</v>
       </c>
@@ -11989,10 +12257,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12259,31 +12527,27 @@
       <c r="H16" s="59"/>
       <c r="I16" s="60"/>
     </row>
-    <row r="17" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="109" x14ac:dyDescent="0.25">
       <c r="A17" s="59"/>
       <c r="B17" s="59"/>
-      <c r="C17" s="71" t="s">
-        <v>516</v>
-      </c>
-      <c r="D17" s="59" t="s">
-        <v>512</v>
-      </c>
+      <c r="C17" s="75" t="s">
+        <v>529</v>
+      </c>
+      <c r="D17" s="59"/>
       <c r="E17" s="59"/>
       <c r="F17" s="59"/>
       <c r="G17" s="59"/>
       <c r="H17" s="59"/>
       <c r="I17" s="60"/>
     </row>
-    <row r="18" spans="1:9" ht="71" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="59"/>
-      <c r="B18" s="64" t="s">
-        <v>518</v>
-      </c>
-      <c r="C18" s="72" t="s">
-        <v>519</v>
-      </c>
-      <c r="D18" s="72" t="s">
-        <v>522</v>
+      <c r="B18" s="59"/>
+      <c r="C18" s="71" t="s">
+        <v>516</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>512</v>
       </c>
       <c r="E18" s="59"/>
       <c r="F18" s="59"/>
@@ -12291,14 +12555,16 @@
       <c r="H18" s="59"/>
       <c r="I18" s="60"/>
     </row>
-    <row r="19" spans="1:9" ht="91" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="71" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="59"/>
-      <c r="B19" s="64"/>
+      <c r="B19" s="64" t="s">
+        <v>518</v>
+      </c>
       <c r="C19" s="72" t="s">
-        <v>520</v>
-      </c>
-      <c r="D19" s="59" t="s">
-        <v>521</v>
+        <v>519</v>
+      </c>
+      <c r="D19" s="72" t="s">
+        <v>522</v>
       </c>
       <c r="E19" s="59"/>
       <c r="F19" s="59"/>
@@ -12306,18 +12572,14 @@
       <c r="H19" s="59"/>
       <c r="I19" s="60"/>
     </row>
-    <row r="20" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="59" t="s">
-        <v>498</v>
-      </c>
-      <c r="B20" s="59" t="s">
-        <v>507</v>
-      </c>
-      <c r="C20" s="59" t="s">
-        <v>508</v>
+    <row r="20" spans="1:9" ht="91" x14ac:dyDescent="0.25">
+      <c r="A20" s="59"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="72" t="s">
+        <v>520</v>
       </c>
       <c r="D20" s="59" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="E20" s="59"/>
       <c r="F20" s="59"/>
@@ -12325,40 +12587,110 @@
       <c r="H20" s="59"/>
       <c r="I20" s="60"/>
     </row>
-    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="59" t="s">
+        <v>498</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>507</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>508</v>
+      </c>
+      <c r="D21" s="59" t="s">
+        <v>528</v>
+      </c>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="60"/>
+    </row>
+    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>505</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>506</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C22" s="59" t="s">
         <v>509</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D22" s="59" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>526</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="B24" s="74" t="s">
+    <row r="25" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="B25" s="74" t="s">
         <v>523</v>
       </c>
-      <c r="C24" s="73" t="s">
+      <c r="C25" s="73" t="s">
         <v>524</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D25" s="59" t="s">
         <v>525</v>
       </c>
     </row>
+    <row r="26" spans="1:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="B26" s="74" t="s">
+        <v>530</v>
+      </c>
+      <c r="C26" s="90" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="C27" s="90" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="C28" s="90" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="C29" s="90" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C30" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="C31" s="90" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="C32" s="90" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" ht="22" x14ac:dyDescent="0.3">
+      <c r="C33" s="90" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" ht="22" x14ac:dyDescent="0.3">
+      <c r="C34" s="90" t="s">
+        <v>539</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C30" r:id="rId1" location="collections.deque.reverse" tooltip="Permalink to this definition"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/mycode/刷题统计 (Autosaved).xlsx
+++ b/mycode/刷题统计 (Autosaved).xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="541">
   <si>
     <t>1 binary search</t>
   </si>
@@ -1400,9 +1400,6 @@
   </si>
   <si>
     <t>题69</t>
-  </si>
-  <si>
-    <t>heapq</t>
   </si>
   <si>
     <t>import heapq</t>
@@ -1905,6 +1902,12 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>from scipy.special import comb</t>
+  </si>
+  <si>
+    <t>heapq 大堆</t>
   </si>
 </sst>
 </file>
@@ -2459,10 +2462,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2474,19 +2484,13 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2501,7 +2505,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="79">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3353,7 +3356,7 @@
         <v>42964</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -3385,7 +3388,7 @@
     </row>
     <row r="25" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D25" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F25" s="10">
         <v>441</v>
@@ -5886,7 +5889,7 @@
       <c r="B146" s="34" t="s">
         <v>339</v>
       </c>
-      <c r="C146" s="76" t="s">
+      <c r="C146" s="84" t="s">
         <v>350</v>
       </c>
       <c r="D146" s="34" t="s">
@@ -5915,7 +5918,7 @@
       <c r="A147" s="10">
         <v>145</v>
       </c>
-      <c r="C147" s="81"/>
+      <c r="C147" s="86"/>
       <c r="D147" s="34" t="s">
         <v>342</v>
       </c>
@@ -5942,7 +5945,7 @@
       <c r="A148" s="10">
         <v>146</v>
       </c>
-      <c r="C148" s="81"/>
+      <c r="C148" s="86"/>
       <c r="D148" s="34" t="s">
         <v>343</v>
       </c>
@@ -5969,7 +5972,7 @@
       <c r="A149" s="10">
         <v>147</v>
       </c>
-      <c r="C149" s="81"/>
+      <c r="C149" s="86"/>
       <c r="D149" s="34" t="s">
         <v>309</v>
       </c>
@@ -5993,7 +5996,7 @@
       <c r="A150" s="10">
         <v>148</v>
       </c>
-      <c r="C150" s="81"/>
+      <c r="C150" s="86"/>
       <c r="D150" s="34" t="s">
         <v>317</v>
       </c>
@@ -6017,7 +6020,7 @@
       <c r="A151" s="10">
         <v>149</v>
       </c>
-      <c r="C151" s="77"/>
+      <c r="C151" s="85"/>
       <c r="D151" s="34" t="s">
         <v>318</v>
       </c>
@@ -6041,7 +6044,7 @@
       <c r="A152" s="10">
         <v>150</v>
       </c>
-      <c r="C152" s="76" t="s">
+      <c r="C152" s="84" t="s">
         <v>356</v>
       </c>
       <c r="D152" s="34" t="s">
@@ -6067,7 +6070,7 @@
       <c r="A153" s="10">
         <v>151</v>
       </c>
-      <c r="C153" s="77"/>
+      <c r="C153" s="85"/>
       <c r="D153" s="34" t="s">
         <v>330</v>
       </c>
@@ -6094,7 +6097,7 @@
       <c r="A154" s="10">
         <v>152</v>
       </c>
-      <c r="C154" s="76" t="s">
+      <c r="C154" s="84" t="s">
         <v>351</v>
       </c>
       <c r="D154" s="34" t="s">
@@ -6120,7 +6123,7 @@
       <c r="A155" s="10">
         <v>153</v>
       </c>
-      <c r="C155" s="81"/>
+      <c r="C155" s="86"/>
       <c r="D155" s="34" t="s">
         <v>321</v>
       </c>
@@ -6144,7 +6147,7 @@
       <c r="A156" s="10">
         <v>154</v>
       </c>
-      <c r="C156" s="77"/>
+      <c r="C156" s="85"/>
       <c r="D156" s="34" t="s">
         <v>322</v>
       </c>
@@ -6162,7 +6165,7 @@
       <c r="A157" s="10">
         <v>155</v>
       </c>
-      <c r="C157" s="76" t="s">
+      <c r="C157" s="84" t="s">
         <v>358</v>
       </c>
       <c r="D157" s="34" t="s">
@@ -6191,7 +6194,7 @@
       <c r="A158" s="10">
         <v>156</v>
       </c>
-      <c r="C158" s="77"/>
+      <c r="C158" s="85"/>
       <c r="D158" s="34" t="s">
         <v>354</v>
       </c>
@@ -6216,7 +6219,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="40"/>
-      <c r="C159" s="78" t="s">
+      <c r="C159" s="81" t="s">
         <v>357</v>
       </c>
       <c r="D159" s="40" t="s">
@@ -6248,7 +6251,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="40"/>
-      <c r="C160" s="79"/>
+      <c r="C160" s="82"/>
       <c r="D160" s="40" t="s">
         <v>352</v>
       </c>
@@ -6276,7 +6279,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="40"/>
-      <c r="C161" s="79"/>
+      <c r="C161" s="82"/>
       <c r="D161" s="40" t="s">
         <v>324</v>
       </c>
@@ -6306,7 +6309,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="40"/>
-      <c r="C162" s="79"/>
+      <c r="C162" s="82"/>
       <c r="D162" s="40" t="s">
         <v>328</v>
       </c>
@@ -6336,7 +6339,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="40"/>
-      <c r="C163" s="80"/>
+      <c r="C163" s="83"/>
       <c r="D163" s="40" t="s">
         <v>331</v>
       </c>
@@ -6364,7 +6367,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="40"/>
-      <c r="C164" s="78" t="s">
+      <c r="C164" s="81" t="s">
         <v>359</v>
       </c>
       <c r="D164" s="40" t="s">
@@ -6396,7 +6399,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="40"/>
-      <c r="C165" s="79"/>
+      <c r="C165" s="82"/>
       <c r="D165" s="40" t="s">
         <v>337</v>
       </c>
@@ -6426,7 +6429,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="40"/>
-      <c r="C166" s="80"/>
+      <c r="C166" s="83"/>
       <c r="D166" s="40" t="s">
         <v>338</v>
       </c>
@@ -6898,7 +6901,7 @@
       <c r="B183" s="51"/>
       <c r="C183" s="51"/>
       <c r="D183" s="40" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E183" s="51"/>
       <c r="F183" s="51">
@@ -6925,7 +6928,7 @@
       <c r="B184" s="51"/>
       <c r="C184" s="51"/>
       <c r="D184" s="40" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E184" s="51"/>
       <c r="F184" s="51">
@@ -6944,7 +6947,7 @@
       <c r="B185" s="51"/>
       <c r="C185" s="51"/>
       <c r="D185" s="40" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E185" s="51"/>
       <c r="F185" s="51">
@@ -6996,7 +6999,7 @@
         <v>2</v>
       </c>
       <c r="J187" s="49" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K187" s="70">
         <v>42966</v>
@@ -7563,7 +7566,7 @@
       <c r="A228" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B228" s="85" t="s">
+      <c r="B228" s="80" t="s">
         <v>423</v>
       </c>
       <c r="C228" s="49" t="s">
@@ -7592,7 +7595,7 @@
       <c r="A229" s="49">
         <v>223</v>
       </c>
-      <c r="B229" s="83"/>
+      <c r="B229" s="78"/>
       <c r="C229" s="49" t="s">
         <v>424</v>
       </c>
@@ -7619,7 +7622,7 @@
       <c r="A230" s="49">
         <v>224</v>
       </c>
-      <c r="B230" s="83"/>
+      <c r="B230" s="78"/>
       <c r="C230" s="49" t="s">
         <v>425</v>
       </c>
@@ -7646,7 +7649,7 @@
       <c r="A231" s="49">
         <v>225</v>
       </c>
-      <c r="B231" s="83"/>
+      <c r="B231" s="78"/>
       <c r="C231" s="49" t="s">
         <v>425</v>
       </c>
@@ -7673,7 +7676,7 @@
       <c r="A232" s="49">
         <v>226</v>
       </c>
-      <c r="B232" s="83"/>
+      <c r="B232" s="78"/>
       <c r="C232" s="49" t="s">
         <v>425</v>
       </c>
@@ -7700,7 +7703,7 @@
       <c r="A233" s="49">
         <v>227</v>
       </c>
-      <c r="B233" s="83"/>
+      <c r="B233" s="78"/>
       <c r="C233" s="49" t="s">
         <v>428</v>
       </c>
@@ -7726,14 +7729,14 @@
         <v>42965</v>
       </c>
       <c r="L233" s="49" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="234" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A234" s="49">
         <v>228</v>
       </c>
-      <c r="B234" s="83"/>
+      <c r="B234" s="78"/>
       <c r="C234" s="49" t="s">
         <v>424</v>
       </c>
@@ -7763,7 +7766,7 @@
       <c r="A235" s="49">
         <v>229</v>
       </c>
-      <c r="B235" s="84"/>
+      <c r="B235" s="79"/>
       <c r="C235" s="57" t="s">
         <v>424</v>
       </c>
@@ -7789,14 +7792,14 @@
         <v>42965</v>
       </c>
       <c r="L235" s="57" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="236" spans="1:12" s="58" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A236" s="49">
         <v>230</v>
       </c>
-      <c r="B236" s="82" t="s">
+      <c r="B236" s="77" t="s">
         <v>426</v>
       </c>
       <c r="D236" s="58" t="s">
@@ -7825,7 +7828,7 @@
       <c r="A237" s="49">
         <v>231</v>
       </c>
-      <c r="B237" s="84"/>
+      <c r="B237" s="79"/>
       <c r="D237" s="57" t="s">
         <v>405</v>
       </c>
@@ -7852,7 +7855,7 @@
       <c r="A238" s="49">
         <v>232</v>
       </c>
-      <c r="B238" s="82" t="s">
+      <c r="B238" s="77" t="s">
         <v>427</v>
       </c>
       <c r="D238" s="58" t="s">
@@ -7877,14 +7880,14 @@
         <v>42966</v>
       </c>
       <c r="L238" s="58" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="239" spans="1:12" s="49" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A239" s="49">
         <v>233</v>
       </c>
-      <c r="B239" s="83"/>
+      <c r="B239" s="78"/>
       <c r="D239" s="49" t="s">
         <v>413</v>
       </c>
@@ -7911,7 +7914,7 @@
       <c r="A240" s="49">
         <v>234</v>
       </c>
-      <c r="B240" s="83"/>
+      <c r="B240" s="78"/>
       <c r="D240" s="49" t="s">
         <v>402</v>
       </c>
@@ -7936,7 +7939,7 @@
       <c r="A241" s="49">
         <v>235</v>
       </c>
-      <c r="B241" s="84"/>
+      <c r="B241" s="79"/>
       <c r="D241" s="57" t="s">
         <v>400</v>
       </c>
@@ -7964,7 +7967,7 @@
       <c r="A242" s="49">
         <v>236</v>
       </c>
-      <c r="B242" s="82" t="s">
+      <c r="B242" s="77" t="s">
         <v>433</v>
       </c>
       <c r="D242" s="58" t="s">
@@ -7978,7 +7981,7 @@
       <c r="A243" s="49">
         <v>237</v>
       </c>
-      <c r="B243" s="83"/>
+      <c r="B243" s="78"/>
       <c r="D243" s="49" t="s">
         <v>430</v>
       </c>
@@ -7990,7 +7993,7 @@
       <c r="A244" s="49">
         <v>238</v>
       </c>
-      <c r="B244" s="83"/>
+      <c r="B244" s="78"/>
       <c r="D244" s="49" t="s">
         <v>431</v>
       </c>
@@ -8002,7 +8005,7 @@
       <c r="A245" s="49">
         <v>239</v>
       </c>
-      <c r="B245" s="83"/>
+      <c r="B245" s="78"/>
       <c r="D245" s="49" t="s">
         <v>432</v>
       </c>
@@ -8014,7 +8017,7 @@
       <c r="A246" s="49">
         <v>240</v>
       </c>
-      <c r="B246" s="83"/>
+      <c r="B246" s="78"/>
       <c r="D246" s="54" t="s">
         <v>442</v>
       </c>
@@ -8026,7 +8029,7 @@
       <c r="A247" s="49">
         <v>241</v>
       </c>
-      <c r="B247" s="84"/>
+      <c r="B247" s="79"/>
     </row>
     <row r="248" spans="1:12" s="50" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A248" s="49">
@@ -8054,7 +8057,7 @@
         <v>42967</v>
       </c>
       <c r="L248" s="50" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="249" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.2">
@@ -8285,10 +8288,10 @@
         <v>264</v>
       </c>
       <c r="B270" s="67" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D270" s="67" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E270" s="67">
         <v>137</v>
@@ -8314,7 +8317,7 @@
         <v>265</v>
       </c>
       <c r="D271" s="67" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E271" s="67">
         <v>127</v>
@@ -8337,7 +8340,7 @@
         <v>266</v>
       </c>
       <c r="D272" s="67" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E272" s="67">
         <v>17</v>
@@ -8363,7 +8366,7 @@
         <v>267</v>
       </c>
       <c r="D273" s="67" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E273" s="67">
         <v>18</v>
@@ -8386,7 +8389,7 @@
         <v>268</v>
       </c>
       <c r="D274" s="67" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E274" s="67">
         <v>15</v>
@@ -8412,7 +8415,7 @@
         <v>269</v>
       </c>
       <c r="D275" s="67" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E275" s="67">
         <v>16</v>
@@ -8438,7 +8441,7 @@
         <v>270</v>
       </c>
       <c r="D276" s="67" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E276" s="67">
         <v>33</v>
@@ -8464,7 +8467,7 @@
         <v>271</v>
       </c>
       <c r="D277" s="67" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E277" s="67">
         <v>34</v>
@@ -8493,7 +8496,7 @@
         <v>422</v>
       </c>
       <c r="D278" s="67" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E278" s="67">
         <v>136</v>
@@ -8508,7 +8511,7 @@
         <v>2</v>
       </c>
       <c r="J278" s="67" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K278" s="68">
         <v>42966</v>
@@ -8519,7 +8522,7 @@
         <v>273</v>
       </c>
       <c r="D279" s="67" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E279" s="67">
         <v>135</v>
@@ -8545,7 +8548,7 @@
         <v>274</v>
       </c>
       <c r="D280" s="67" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E280" s="67">
         <v>120</v>
@@ -8576,7 +8579,7 @@
         <v>276</v>
       </c>
       <c r="D282" s="69" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F282" s="69">
         <v>36</v>
@@ -8587,7 +8590,7 @@
         <v>277</v>
       </c>
       <c r="D283" s="69" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F283" s="69">
         <v>37</v>
@@ -8833,16 +8836,16 @@
     <sortCondition ref="A1"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="C164:C166"/>
+    <mergeCell ref="C146:C151"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="C154:C156"/>
     <mergeCell ref="B242:B247"/>
     <mergeCell ref="B236:B237"/>
     <mergeCell ref="B228:B235"/>
     <mergeCell ref="B238:B241"/>
     <mergeCell ref="C159:C163"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="C164:C166"/>
-    <mergeCell ref="C146:C151"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="C154:C156"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D56" r:id="rId1"/>
@@ -9339,7 +9342,7 @@
     </row>
     <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="86" t="s">
+      <c r="B18" s="87" t="s">
         <v>256</v>
       </c>
       <c r="C18" s="1"/>
@@ -9373,7 +9376,7 @@
     </row>
     <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="87"/>
+      <c r="B19" s="88"/>
       <c r="C19" s="1">
         <v>100</v>
       </c>
@@ -9407,7 +9410,7 @@
     </row>
     <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="87"/>
+      <c r="B20" s="88"/>
       <c r="C20" s="1">
         <v>101</v>
       </c>
@@ -9435,7 +9438,7 @@
     </row>
     <row r="21" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="87"/>
+      <c r="B21" s="88"/>
       <c r="C21" s="1">
         <v>172</v>
       </c>
@@ -9696,7 +9699,7 @@
     </row>
     <row r="30" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="88" t="s">
+      <c r="B30" s="89" t="s">
         <v>297</v>
       </c>
       <c r="C30" s="1"/>
@@ -9732,7 +9735,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="88"/>
+      <c r="B31" s="89"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1">
         <v>628</v>
@@ -9766,7 +9769,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="89" t="s">
+      <c r="B32" s="90" t="s">
         <v>254</v>
       </c>
       <c r="C32" s="1">
@@ -9798,7 +9801,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="89"/>
+      <c r="B33" s="90"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1">
         <v>645</v>
@@ -9826,7 +9829,7 @@
       <c r="A34" t="s">
         <v>246</v>
       </c>
-      <c r="B34" s="89"/>
+      <c r="B34" s="90"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1">
         <v>448</v>
@@ -9854,7 +9857,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="89"/>
+      <c r="B35" s="90"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1">
         <v>442</v>
@@ -9879,7 +9882,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="89"/>
+      <c r="B36" s="90"/>
       <c r="C36" s="1">
         <v>633</v>
       </c>
@@ -9906,7 +9909,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="89"/>
+      <c r="B37" s="90"/>
       <c r="C37" s="1">
         <v>189</v>
       </c>
@@ -9933,7 +9936,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="89" t="s">
+      <c r="B38" s="90" t="s">
         <v>301</v>
       </c>
       <c r="C38" s="1">
@@ -9968,7 +9971,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="89"/>
+      <c r="B39" s="90"/>
       <c r="C39" s="1">
         <v>47</v>
       </c>
@@ -12257,10 +12260,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12363,16 +12366,16 @@
     </row>
     <row r="7" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="59" t="s">
+        <v>540</v>
+      </c>
+      <c r="B7" s="62" t="s">
         <v>457</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="C7" s="62" t="s">
         <v>458</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="D7" s="63" t="s">
         <v>459</v>
-      </c>
-      <c r="D7" s="63" t="s">
-        <v>460</v>
       </c>
       <c r="E7" s="59"/>
       <c r="F7" s="59"/>
@@ -12382,13 +12385,13 @@
     </row>
     <row r="8" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="59" t="s">
+        <v>460</v>
+      </c>
+      <c r="B8" s="62" t="s">
         <v>461</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="C8" s="63" t="s">
         <v>462</v>
-      </c>
-      <c r="C8" s="63" t="s">
-        <v>463</v>
       </c>
       <c r="D8" s="59"/>
       <c r="E8" s="59"/>
@@ -12400,10 +12403,10 @@
     <row r="9" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="59"/>
       <c r="B9" s="59" t="s">
+        <v>463</v>
+      </c>
+      <c r="C9" s="63" t="s">
         <v>464</v>
-      </c>
-      <c r="C9" s="63" t="s">
-        <v>465</v>
       </c>
       <c r="D9" s="59"/>
       <c r="E9" s="59"/>
@@ -12414,13 +12417,13 @@
     </row>
     <row r="10" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="62" t="s">
+        <v>465</v>
+      </c>
+      <c r="B10" s="59" t="s">
         <v>466</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="C10" s="63" t="s">
         <v>467</v>
-      </c>
-      <c r="C10" s="63" t="s">
-        <v>468</v>
       </c>
       <c r="D10" s="59"/>
       <c r="E10" s="59"/>
@@ -12431,13 +12434,13 @@
     </row>
     <row r="11" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="64" t="s">
+        <v>468</v>
+      </c>
+      <c r="B11" s="64" t="s">
         <v>469</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="C11" s="62" t="s">
         <v>470</v>
-      </c>
-      <c r="C11" s="62" t="s">
-        <v>471</v>
       </c>
       <c r="D11" s="59"/>
       <c r="E11" s="59"/>
@@ -12449,10 +12452,10 @@
     <row r="12" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="64"/>
       <c r="B12" s="64" t="s">
+        <v>471</v>
+      </c>
+      <c r="C12" s="59" t="s">
         <v>472</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>473</v>
       </c>
       <c r="D12" s="59"/>
       <c r="E12" s="59"/>
@@ -12465,10 +12468,10 @@
       <c r="A13" s="59"/>
       <c r="B13" s="59"/>
       <c r="C13" s="59" t="s">
+        <v>473</v>
+      </c>
+      <c r="D13" s="59" t="s">
         <v>474</v>
-      </c>
-      <c r="D13" s="59" t="s">
-        <v>475</v>
       </c>
       <c r="E13" s="59"/>
       <c r="F13" s="59"/>
@@ -12480,10 +12483,10 @@
       <c r="A14" s="59"/>
       <c r="B14" s="59"/>
       <c r="C14" s="63" t="s">
+        <v>475</v>
+      </c>
+      <c r="D14" s="59" t="s">
         <v>476</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>477</v>
       </c>
       <c r="E14" s="59"/>
       <c r="F14" s="59"/>
@@ -12494,13 +12497,13 @@
     <row r="15" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="59"/>
       <c r="B15" s="59" t="s">
+        <v>512</v>
+      </c>
+      <c r="C15" s="63" t="s">
         <v>513</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="D15" s="59" t="s">
         <v>514</v>
-      </c>
-      <c r="D15" s="59" t="s">
-        <v>515</v>
       </c>
       <c r="E15" s="59"/>
       <c r="F15" s="59"/>
@@ -12510,16 +12513,16 @@
     </row>
     <row r="16" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="59" t="s">
+        <v>477</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>510</v>
+      </c>
+      <c r="C16" s="61" t="s">
         <v>478</v>
       </c>
-      <c r="B16" s="59" t="s">
-        <v>511</v>
-      </c>
-      <c r="C16" s="61" t="s">
-        <v>479</v>
-      </c>
       <c r="D16" s="59" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E16" s="59"/>
       <c r="F16" s="59"/>
@@ -12531,7 +12534,7 @@
       <c r="A17" s="59"/>
       <c r="B17" s="59"/>
       <c r="C17" s="75" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D17" s="59"/>
       <c r="E17" s="59"/>
@@ -12544,10 +12547,10 @@
       <c r="A18" s="59"/>
       <c r="B18" s="59"/>
       <c r="C18" s="71" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D18" s="59" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E18" s="59"/>
       <c r="F18" s="59"/>
@@ -12558,13 +12561,13 @@
     <row r="19" spans="1:9" ht="71" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="59"/>
       <c r="B19" s="64" t="s">
+        <v>517</v>
+      </c>
+      <c r="C19" s="72" t="s">
         <v>518</v>
       </c>
-      <c r="C19" s="72" t="s">
-        <v>519</v>
-      </c>
       <c r="D19" s="72" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E19" s="59"/>
       <c r="F19" s="59"/>
@@ -12576,10 +12579,10 @@
       <c r="A20" s="59"/>
       <c r="B20" s="64"/>
       <c r="C20" s="72" t="s">
+        <v>519</v>
+      </c>
+      <c r="D20" s="59" t="s">
         <v>520</v>
-      </c>
-      <c r="D20" s="59" t="s">
-        <v>521</v>
       </c>
       <c r="E20" s="59"/>
       <c r="F20" s="59"/>
@@ -12589,16 +12592,16 @@
     </row>
     <row r="21" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="59" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B21" s="59" t="s">
+        <v>506</v>
+      </c>
+      <c r="C21" s="59" t="s">
         <v>507</v>
       </c>
-      <c r="C21" s="59" t="s">
-        <v>508</v>
-      </c>
       <c r="D21" s="59" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E21" s="59"/>
       <c r="F21" s="59"/>
@@ -12608,82 +12611,87 @@
     </row>
     <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>504</v>
+      </c>
+      <c r="B22" t="s">
         <v>505</v>
       </c>
-      <c r="B22" t="s">
-        <v>506</v>
-      </c>
       <c r="C22" s="59" t="s">
+        <v>508</v>
+      </c>
+      <c r="D22" s="59" t="s">
         <v>509</v>
-      </c>
-      <c r="D22" s="59" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>525</v>
+      </c>
+      <c r="C23" t="s">
         <v>526</v>
-      </c>
-      <c r="C23" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B25" s="74" t="s">
+        <v>522</v>
+      </c>
+      <c r="C25" s="73" t="s">
         <v>523</v>
       </c>
-      <c r="C25" s="73" t="s">
+      <c r="D25" s="59" t="s">
         <v>524</v>
-      </c>
-      <c r="D25" s="59" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="22" x14ac:dyDescent="0.3">
       <c r="B26" s="74" t="s">
+        <v>529</v>
+      </c>
+      <c r="C26" s="76" t="s">
         <v>530</v>
       </c>
-      <c r="C26" s="90" t="s">
+    </row>
+    <row r="27" spans="1:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="C27" s="76" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="22" x14ac:dyDescent="0.3">
-      <c r="C27" s="90" t="s">
+    <row r="28" spans="1:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="C28" s="76" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="22" x14ac:dyDescent="0.3">
-      <c r="C28" s="90" t="s">
+    <row r="29" spans="1:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="C29" s="76" t="s">
         <v>533</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="22" x14ac:dyDescent="0.3">
-      <c r="C29" s="90" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="C31" s="76" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="22" x14ac:dyDescent="0.3">
-      <c r="C31" s="90" t="s">
+    <row r="32" spans="1:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="C32" s="76" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="22" x14ac:dyDescent="0.3">
-      <c r="C32" s="90" t="s">
+    <row r="33" spans="2:3" ht="22" x14ac:dyDescent="0.3">
+      <c r="C33" s="76" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="33" spans="3:3" ht="22" x14ac:dyDescent="0.3">
-      <c r="C33" s="90" t="s">
+    <row r="34" spans="2:3" ht="22" x14ac:dyDescent="0.3">
+      <c r="C34" s="76" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="34" spans="3:3" ht="22" x14ac:dyDescent="0.3">
-      <c r="C34" s="90" t="s">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>539</v>
       </c>
     </row>

--- a/mycode/刷题统计 (Autosaved).xlsx
+++ b/mycode/刷题统计 (Autosaved).xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="544">
   <si>
     <t>1 binary search</t>
   </si>
@@ -1909,12 +1909,21 @@
   <si>
     <t>heapq 大堆</t>
   </si>
+  <si>
+    <t>ascii</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2029,6 +2038,11 @@
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF555555"/>
+      <name val="Tahoma"/>
     </font>
   </fonts>
   <fills count="16">
@@ -2367,7 +2381,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
@@ -2463,16 +2477,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2484,13 +2492,19 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2505,6 +2519,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="79">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5889,7 +5904,7 @@
       <c r="B146" s="34" t="s">
         <v>339</v>
       </c>
-      <c r="C146" s="84" t="s">
+      <c r="C146" s="77" t="s">
         <v>350</v>
       </c>
       <c r="D146" s="34" t="s">
@@ -5918,7 +5933,7 @@
       <c r="A147" s="10">
         <v>145</v>
       </c>
-      <c r="C147" s="86"/>
+      <c r="C147" s="82"/>
       <c r="D147" s="34" t="s">
         <v>342</v>
       </c>
@@ -5945,7 +5960,7 @@
       <c r="A148" s="10">
         <v>146</v>
       </c>
-      <c r="C148" s="86"/>
+      <c r="C148" s="82"/>
       <c r="D148" s="34" t="s">
         <v>343</v>
       </c>
@@ -5972,7 +5987,7 @@
       <c r="A149" s="10">
         <v>147</v>
       </c>
-      <c r="C149" s="86"/>
+      <c r="C149" s="82"/>
       <c r="D149" s="34" t="s">
         <v>309</v>
       </c>
@@ -5996,7 +6011,7 @@
       <c r="A150" s="10">
         <v>148</v>
       </c>
-      <c r="C150" s="86"/>
+      <c r="C150" s="82"/>
       <c r="D150" s="34" t="s">
         <v>317</v>
       </c>
@@ -6020,7 +6035,7 @@
       <c r="A151" s="10">
         <v>149</v>
       </c>
-      <c r="C151" s="85"/>
+      <c r="C151" s="78"/>
       <c r="D151" s="34" t="s">
         <v>318</v>
       </c>
@@ -6044,7 +6059,7 @@
       <c r="A152" s="10">
         <v>150</v>
       </c>
-      <c r="C152" s="84" t="s">
+      <c r="C152" s="77" t="s">
         <v>356</v>
       </c>
       <c r="D152" s="34" t="s">
@@ -6070,7 +6085,7 @@
       <c r="A153" s="10">
         <v>151</v>
       </c>
-      <c r="C153" s="85"/>
+      <c r="C153" s="78"/>
       <c r="D153" s="34" t="s">
         <v>330</v>
       </c>
@@ -6097,7 +6112,7 @@
       <c r="A154" s="10">
         <v>152</v>
       </c>
-      <c r="C154" s="84" t="s">
+      <c r="C154" s="77" t="s">
         <v>351</v>
       </c>
       <c r="D154" s="34" t="s">
@@ -6123,7 +6138,7 @@
       <c r="A155" s="10">
         <v>153</v>
       </c>
-      <c r="C155" s="86"/>
+      <c r="C155" s="82"/>
       <c r="D155" s="34" t="s">
         <v>321</v>
       </c>
@@ -6147,7 +6162,7 @@
       <c r="A156" s="10">
         <v>154</v>
       </c>
-      <c r="C156" s="85"/>
+      <c r="C156" s="78"/>
       <c r="D156" s="34" t="s">
         <v>322</v>
       </c>
@@ -6165,7 +6180,7 @@
       <c r="A157" s="10">
         <v>155</v>
       </c>
-      <c r="C157" s="84" t="s">
+      <c r="C157" s="77" t="s">
         <v>358</v>
       </c>
       <c r="D157" s="34" t="s">
@@ -6194,7 +6209,7 @@
       <c r="A158" s="10">
         <v>156</v>
       </c>
-      <c r="C158" s="85"/>
+      <c r="C158" s="78"/>
       <c r="D158" s="34" t="s">
         <v>354</v>
       </c>
@@ -6219,7 +6234,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="40"/>
-      <c r="C159" s="81" t="s">
+      <c r="C159" s="79" t="s">
         <v>357</v>
       </c>
       <c r="D159" s="40" t="s">
@@ -6251,7 +6266,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="40"/>
-      <c r="C160" s="82"/>
+      <c r="C160" s="80"/>
       <c r="D160" s="40" t="s">
         <v>352</v>
       </c>
@@ -6279,7 +6294,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="40"/>
-      <c r="C161" s="82"/>
+      <c r="C161" s="80"/>
       <c r="D161" s="40" t="s">
         <v>324</v>
       </c>
@@ -6309,7 +6324,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="40"/>
-      <c r="C162" s="82"/>
+      <c r="C162" s="80"/>
       <c r="D162" s="40" t="s">
         <v>328</v>
       </c>
@@ -6339,7 +6354,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="40"/>
-      <c r="C163" s="83"/>
+      <c r="C163" s="81"/>
       <c r="D163" s="40" t="s">
         <v>331</v>
       </c>
@@ -6367,7 +6382,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="40"/>
-      <c r="C164" s="81" t="s">
+      <c r="C164" s="79" t="s">
         <v>359</v>
       </c>
       <c r="D164" s="40" t="s">
@@ -6399,7 +6414,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="40"/>
-      <c r="C165" s="82"/>
+      <c r="C165" s="80"/>
       <c r="D165" s="40" t="s">
         <v>337</v>
       </c>
@@ -6429,7 +6444,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="40"/>
-      <c r="C166" s="83"/>
+      <c r="C166" s="81"/>
       <c r="D166" s="40" t="s">
         <v>338</v>
       </c>
@@ -7566,7 +7581,7 @@
       <c r="A228" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B228" s="80" t="s">
+      <c r="B228" s="86" t="s">
         <v>423</v>
       </c>
       <c r="C228" s="49" t="s">
@@ -7595,7 +7610,7 @@
       <c r="A229" s="49">
         <v>223</v>
       </c>
-      <c r="B229" s="78"/>
+      <c r="B229" s="84"/>
       <c r="C229" s="49" t="s">
         <v>424</v>
       </c>
@@ -7622,7 +7637,7 @@
       <c r="A230" s="49">
         <v>224</v>
       </c>
-      <c r="B230" s="78"/>
+      <c r="B230" s="84"/>
       <c r="C230" s="49" t="s">
         <v>425</v>
       </c>
@@ -7649,7 +7664,7 @@
       <c r="A231" s="49">
         <v>225</v>
       </c>
-      <c r="B231" s="78"/>
+      <c r="B231" s="84"/>
       <c r="C231" s="49" t="s">
         <v>425</v>
       </c>
@@ -7676,7 +7691,7 @@
       <c r="A232" s="49">
         <v>226</v>
       </c>
-      <c r="B232" s="78"/>
+      <c r="B232" s="84"/>
       <c r="C232" s="49" t="s">
         <v>425</v>
       </c>
@@ -7703,7 +7718,7 @@
       <c r="A233" s="49">
         <v>227</v>
       </c>
-      <c r="B233" s="78"/>
+      <c r="B233" s="84"/>
       <c r="C233" s="49" t="s">
         <v>428</v>
       </c>
@@ -7736,7 +7751,7 @@
       <c r="A234" s="49">
         <v>228</v>
       </c>
-      <c r="B234" s="78"/>
+      <c r="B234" s="84"/>
       <c r="C234" s="49" t="s">
         <v>424</v>
       </c>
@@ -7766,7 +7781,7 @@
       <c r="A235" s="49">
         <v>229</v>
       </c>
-      <c r="B235" s="79"/>
+      <c r="B235" s="85"/>
       <c r="C235" s="57" t="s">
         <v>424</v>
       </c>
@@ -7799,7 +7814,7 @@
       <c r="A236" s="49">
         <v>230</v>
       </c>
-      <c r="B236" s="77" t="s">
+      <c r="B236" s="83" t="s">
         <v>426</v>
       </c>
       <c r="D236" s="58" t="s">
@@ -7828,7 +7843,7 @@
       <c r="A237" s="49">
         <v>231</v>
       </c>
-      <c r="B237" s="79"/>
+      <c r="B237" s="85"/>
       <c r="D237" s="57" t="s">
         <v>405</v>
       </c>
@@ -7855,7 +7870,7 @@
       <c r="A238" s="49">
         <v>232</v>
       </c>
-      <c r="B238" s="77" t="s">
+      <c r="B238" s="83" t="s">
         <v>427</v>
       </c>
       <c r="D238" s="58" t="s">
@@ -7887,7 +7902,7 @@
       <c r="A239" s="49">
         <v>233</v>
       </c>
-      <c r="B239" s="78"/>
+      <c r="B239" s="84"/>
       <c r="D239" s="49" t="s">
         <v>413</v>
       </c>
@@ -7914,7 +7929,7 @@
       <c r="A240" s="49">
         <v>234</v>
       </c>
-      <c r="B240" s="78"/>
+      <c r="B240" s="84"/>
       <c r="D240" s="49" t="s">
         <v>402</v>
       </c>
@@ -7939,7 +7954,7 @@
       <c r="A241" s="49">
         <v>235</v>
       </c>
-      <c r="B241" s="79"/>
+      <c r="B241" s="85"/>
       <c r="D241" s="57" t="s">
         <v>400</v>
       </c>
@@ -7967,7 +7982,7 @@
       <c r="A242" s="49">
         <v>236</v>
       </c>
-      <c r="B242" s="77" t="s">
+      <c r="B242" s="83" t="s">
         <v>433</v>
       </c>
       <c r="D242" s="58" t="s">
@@ -7981,7 +7996,7 @@
       <c r="A243" s="49">
         <v>237</v>
       </c>
-      <c r="B243" s="78"/>
+      <c r="B243" s="84"/>
       <c r="D243" s="49" t="s">
         <v>430</v>
       </c>
@@ -7993,7 +8008,7 @@
       <c r="A244" s="49">
         <v>238</v>
       </c>
-      <c r="B244" s="78"/>
+      <c r="B244" s="84"/>
       <c r="D244" s="49" t="s">
         <v>431</v>
       </c>
@@ -8005,7 +8020,7 @@
       <c r="A245" s="49">
         <v>239</v>
       </c>
-      <c r="B245" s="78"/>
+      <c r="B245" s="84"/>
       <c r="D245" s="49" t="s">
         <v>432</v>
       </c>
@@ -8017,7 +8032,7 @@
       <c r="A246" s="49">
         <v>240</v>
       </c>
-      <c r="B246" s="78"/>
+      <c r="B246" s="84"/>
       <c r="D246" s="54" t="s">
         <v>442</v>
       </c>
@@ -8029,7 +8044,7 @@
       <c r="A247" s="49">
         <v>241</v>
       </c>
-      <c r="B247" s="79"/>
+      <c r="B247" s="85"/>
     </row>
     <row r="248" spans="1:12" s="50" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A248" s="49">
@@ -8836,16 +8851,16 @@
     <sortCondition ref="A1"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="B242:B247"/>
+    <mergeCell ref="B236:B237"/>
+    <mergeCell ref="B228:B235"/>
+    <mergeCell ref="B238:B241"/>
+    <mergeCell ref="C159:C163"/>
     <mergeCell ref="C157:C158"/>
     <mergeCell ref="C164:C166"/>
     <mergeCell ref="C146:C151"/>
     <mergeCell ref="C152:C153"/>
     <mergeCell ref="C154:C156"/>
-    <mergeCell ref="B242:B247"/>
-    <mergeCell ref="B236:B237"/>
-    <mergeCell ref="B228:B235"/>
-    <mergeCell ref="B238:B241"/>
-    <mergeCell ref="C159:C163"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D56" r:id="rId1"/>
@@ -12260,10 +12275,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12680,19 +12695,46 @@
         <v>536</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="22" x14ac:dyDescent="0.3">
       <c r="C33" s="76" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="22" x14ac:dyDescent="0.3">
       <c r="C34" s="76" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>539</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="91" t="s">
+        <v>541</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>542</v>
+      </c>
+      <c r="C37">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>543</v>
+      </c>
+      <c r="C38">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/mycode/刷题统计 (Autosaved).xlsx
+++ b/mycode/刷题统计 (Autosaved).xlsx
@@ -1907,9 +1907,6 @@
     <t>from scipy.special import comb</t>
   </si>
   <si>
-    <t>heapq 大堆</t>
-  </si>
-  <si>
     <t>ascii</t>
   </si>
   <si>
@@ -1917,6 +1914,9 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>heapq 小堆</t>
   </si>
 </sst>
 </file>
@@ -2477,10 +2477,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2492,19 +2499,13 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2519,7 +2520,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="79">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5904,7 +5904,7 @@
       <c r="B146" s="34" t="s">
         <v>339</v>
       </c>
-      <c r="C146" s="77" t="s">
+      <c r="C146" s="85" t="s">
         <v>350</v>
       </c>
       <c r="D146" s="34" t="s">
@@ -5933,7 +5933,7 @@
       <c r="A147" s="10">
         <v>145</v>
       </c>
-      <c r="C147" s="82"/>
+      <c r="C147" s="87"/>
       <c r="D147" s="34" t="s">
         <v>342</v>
       </c>
@@ -5960,7 +5960,7 @@
       <c r="A148" s="10">
         <v>146</v>
       </c>
-      <c r="C148" s="82"/>
+      <c r="C148" s="87"/>
       <c r="D148" s="34" t="s">
         <v>343</v>
       </c>
@@ -5987,7 +5987,7 @@
       <c r="A149" s="10">
         <v>147</v>
       </c>
-      <c r="C149" s="82"/>
+      <c r="C149" s="87"/>
       <c r="D149" s="34" t="s">
         <v>309</v>
       </c>
@@ -6011,7 +6011,7 @@
       <c r="A150" s="10">
         <v>148</v>
       </c>
-      <c r="C150" s="82"/>
+      <c r="C150" s="87"/>
       <c r="D150" s="34" t="s">
         <v>317</v>
       </c>
@@ -6035,7 +6035,7 @@
       <c r="A151" s="10">
         <v>149</v>
       </c>
-      <c r="C151" s="78"/>
+      <c r="C151" s="86"/>
       <c r="D151" s="34" t="s">
         <v>318</v>
       </c>
@@ -6059,7 +6059,7 @@
       <c r="A152" s="10">
         <v>150</v>
       </c>
-      <c r="C152" s="77" t="s">
+      <c r="C152" s="85" t="s">
         <v>356</v>
       </c>
       <c r="D152" s="34" t="s">
@@ -6085,7 +6085,7 @@
       <c r="A153" s="10">
         <v>151</v>
       </c>
-      <c r="C153" s="78"/>
+      <c r="C153" s="86"/>
       <c r="D153" s="34" t="s">
         <v>330</v>
       </c>
@@ -6112,7 +6112,7 @@
       <c r="A154" s="10">
         <v>152</v>
       </c>
-      <c r="C154" s="77" t="s">
+      <c r="C154" s="85" t="s">
         <v>351</v>
       </c>
       <c r="D154" s="34" t="s">
@@ -6138,7 +6138,7 @@
       <c r="A155" s="10">
         <v>153</v>
       </c>
-      <c r="C155" s="82"/>
+      <c r="C155" s="87"/>
       <c r="D155" s="34" t="s">
         <v>321</v>
       </c>
@@ -6162,7 +6162,7 @@
       <c r="A156" s="10">
         <v>154</v>
       </c>
-      <c r="C156" s="78"/>
+      <c r="C156" s="86"/>
       <c r="D156" s="34" t="s">
         <v>322</v>
       </c>
@@ -6180,7 +6180,7 @@
       <c r="A157" s="10">
         <v>155</v>
       </c>
-      <c r="C157" s="77" t="s">
+      <c r="C157" s="85" t="s">
         <v>358</v>
       </c>
       <c r="D157" s="34" t="s">
@@ -6209,7 +6209,7 @@
       <c r="A158" s="10">
         <v>156</v>
       </c>
-      <c r="C158" s="78"/>
+      <c r="C158" s="86"/>
       <c r="D158" s="34" t="s">
         <v>354</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="40"/>
-      <c r="C159" s="79" t="s">
+      <c r="C159" s="82" t="s">
         <v>357</v>
       </c>
       <c r="D159" s="40" t="s">
@@ -6266,7 +6266,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="40"/>
-      <c r="C160" s="80"/>
+      <c r="C160" s="83"/>
       <c r="D160" s="40" t="s">
         <v>352</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="40"/>
-      <c r="C161" s="80"/>
+      <c r="C161" s="83"/>
       <c r="D161" s="40" t="s">
         <v>324</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="40"/>
-      <c r="C162" s="80"/>
+      <c r="C162" s="83"/>
       <c r="D162" s="40" t="s">
         <v>328</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="40"/>
-      <c r="C163" s="81"/>
+      <c r="C163" s="84"/>
       <c r="D163" s="40" t="s">
         <v>331</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="40"/>
-      <c r="C164" s="79" t="s">
+      <c r="C164" s="82" t="s">
         <v>359</v>
       </c>
       <c r="D164" s="40" t="s">
@@ -6414,7 +6414,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="40"/>
-      <c r="C165" s="80"/>
+      <c r="C165" s="83"/>
       <c r="D165" s="40" t="s">
         <v>337</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="40"/>
-      <c r="C166" s="81"/>
+      <c r="C166" s="84"/>
       <c r="D166" s="40" t="s">
         <v>338</v>
       </c>
@@ -7581,7 +7581,7 @@
       <c r="A228" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B228" s="86" t="s">
+      <c r="B228" s="81" t="s">
         <v>423</v>
       </c>
       <c r="C228" s="49" t="s">
@@ -7610,7 +7610,7 @@
       <c r="A229" s="49">
         <v>223</v>
       </c>
-      <c r="B229" s="84"/>
+      <c r="B229" s="79"/>
       <c r="C229" s="49" t="s">
         <v>424</v>
       </c>
@@ -7637,7 +7637,7 @@
       <c r="A230" s="49">
         <v>224</v>
       </c>
-      <c r="B230" s="84"/>
+      <c r="B230" s="79"/>
       <c r="C230" s="49" t="s">
         <v>425</v>
       </c>
@@ -7664,7 +7664,7 @@
       <c r="A231" s="49">
         <v>225</v>
       </c>
-      <c r="B231" s="84"/>
+      <c r="B231" s="79"/>
       <c r="C231" s="49" t="s">
         <v>425</v>
       </c>
@@ -7691,7 +7691,7 @@
       <c r="A232" s="49">
         <v>226</v>
       </c>
-      <c r="B232" s="84"/>
+      <c r="B232" s="79"/>
       <c r="C232" s="49" t="s">
         <v>425</v>
       </c>
@@ -7718,7 +7718,7 @@
       <c r="A233" s="49">
         <v>227</v>
       </c>
-      <c r="B233" s="84"/>
+      <c r="B233" s="79"/>
       <c r="C233" s="49" t="s">
         <v>428</v>
       </c>
@@ -7751,7 +7751,7 @@
       <c r="A234" s="49">
         <v>228</v>
       </c>
-      <c r="B234" s="84"/>
+      <c r="B234" s="79"/>
       <c r="C234" s="49" t="s">
         <v>424</v>
       </c>
@@ -7781,7 +7781,7 @@
       <c r="A235" s="49">
         <v>229</v>
       </c>
-      <c r="B235" s="85"/>
+      <c r="B235" s="80"/>
       <c r="C235" s="57" t="s">
         <v>424</v>
       </c>
@@ -7814,7 +7814,7 @@
       <c r="A236" s="49">
         <v>230</v>
       </c>
-      <c r="B236" s="83" t="s">
+      <c r="B236" s="78" t="s">
         <v>426</v>
       </c>
       <c r="D236" s="58" t="s">
@@ -7843,7 +7843,7 @@
       <c r="A237" s="49">
         <v>231</v>
       </c>
-      <c r="B237" s="85"/>
+      <c r="B237" s="80"/>
       <c r="D237" s="57" t="s">
         <v>405</v>
       </c>
@@ -7870,7 +7870,7 @@
       <c r="A238" s="49">
         <v>232</v>
       </c>
-      <c r="B238" s="83" t="s">
+      <c r="B238" s="78" t="s">
         <v>427</v>
       </c>
       <c r="D238" s="58" t="s">
@@ -7902,7 +7902,7 @@
       <c r="A239" s="49">
         <v>233</v>
       </c>
-      <c r="B239" s="84"/>
+      <c r="B239" s="79"/>
       <c r="D239" s="49" t="s">
         <v>413</v>
       </c>
@@ -7929,7 +7929,7 @@
       <c r="A240" s="49">
         <v>234</v>
       </c>
-      <c r="B240" s="84"/>
+      <c r="B240" s="79"/>
       <c r="D240" s="49" t="s">
         <v>402</v>
       </c>
@@ -7954,7 +7954,7 @@
       <c r="A241" s="49">
         <v>235</v>
       </c>
-      <c r="B241" s="85"/>
+      <c r="B241" s="80"/>
       <c r="D241" s="57" t="s">
         <v>400</v>
       </c>
@@ -7982,7 +7982,7 @@
       <c r="A242" s="49">
         <v>236</v>
       </c>
-      <c r="B242" s="83" t="s">
+      <c r="B242" s="78" t="s">
         <v>433</v>
       </c>
       <c r="D242" s="58" t="s">
@@ -7996,7 +7996,7 @@
       <c r="A243" s="49">
         <v>237</v>
       </c>
-      <c r="B243" s="84"/>
+      <c r="B243" s="79"/>
       <c r="D243" s="49" t="s">
         <v>430</v>
       </c>
@@ -8008,7 +8008,7 @@
       <c r="A244" s="49">
         <v>238</v>
       </c>
-      <c r="B244" s="84"/>
+      <c r="B244" s="79"/>
       <c r="D244" s="49" t="s">
         <v>431</v>
       </c>
@@ -8020,7 +8020,7 @@
       <c r="A245" s="49">
         <v>239</v>
       </c>
-      <c r="B245" s="84"/>
+      <c r="B245" s="79"/>
       <c r="D245" s="49" t="s">
         <v>432</v>
       </c>
@@ -8032,7 +8032,7 @@
       <c r="A246" s="49">
         <v>240</v>
       </c>
-      <c r="B246" s="84"/>
+      <c r="B246" s="79"/>
       <c r="D246" s="54" t="s">
         <v>442</v>
       </c>
@@ -8044,7 +8044,7 @@
       <c r="A247" s="49">
         <v>241</v>
       </c>
-      <c r="B247" s="85"/>
+      <c r="B247" s="80"/>
     </row>
     <row r="248" spans="1:12" s="50" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A248" s="49">
@@ -8851,16 +8851,16 @@
     <sortCondition ref="A1"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="C164:C166"/>
+    <mergeCell ref="C146:C151"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="C154:C156"/>
     <mergeCell ref="B242:B247"/>
     <mergeCell ref="B236:B237"/>
     <mergeCell ref="B228:B235"/>
     <mergeCell ref="B238:B241"/>
     <mergeCell ref="C159:C163"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="C164:C166"/>
-    <mergeCell ref="C146:C151"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="C154:C156"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D56" r:id="rId1"/>
@@ -9357,7 +9357,7 @@
     </row>
     <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="88" t="s">
         <v>256</v>
       </c>
       <c r="C18" s="1"/>
@@ -9391,7 +9391,7 @@
     </row>
     <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="88"/>
+      <c r="B19" s="89"/>
       <c r="C19" s="1">
         <v>100</v>
       </c>
@@ -9425,7 +9425,7 @@
     </row>
     <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="88"/>
+      <c r="B20" s="89"/>
       <c r="C20" s="1">
         <v>101</v>
       </c>
@@ -9453,7 +9453,7 @@
     </row>
     <row r="21" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="88"/>
+      <c r="B21" s="89"/>
       <c r="C21" s="1">
         <v>172</v>
       </c>
@@ -9714,7 +9714,7 @@
     </row>
     <row r="30" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="89" t="s">
+      <c r="B30" s="90" t="s">
         <v>297</v>
       </c>
       <c r="C30" s="1"/>
@@ -9750,7 +9750,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="89"/>
+      <c r="B31" s="90"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1">
         <v>628</v>
@@ -9784,7 +9784,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="90" t="s">
+      <c r="B32" s="91" t="s">
         <v>254</v>
       </c>
       <c r="C32" s="1">
@@ -9816,7 +9816,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="90"/>
+      <c r="B33" s="91"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1">
         <v>645</v>
@@ -9844,7 +9844,7 @@
       <c r="A34" t="s">
         <v>246</v>
       </c>
-      <c r="B34" s="90"/>
+      <c r="B34" s="91"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1">
         <v>448</v>
@@ -9872,7 +9872,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="90"/>
+      <c r="B35" s="91"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1">
         <v>442</v>
@@ -9897,7 +9897,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="90"/>
+      <c r="B36" s="91"/>
       <c r="C36" s="1">
         <v>633</v>
       </c>
@@ -9924,7 +9924,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="90"/>
+      <c r="B37" s="91"/>
       <c r="C37" s="1">
         <v>189</v>
       </c>
@@ -9951,7 +9951,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="90" t="s">
+      <c r="B38" s="91" t="s">
         <v>301</v>
       </c>
       <c r="C38" s="1">
@@ -9986,7 +9986,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="90"/>
+      <c r="B39" s="91"/>
       <c r="C39" s="1">
         <v>47</v>
       </c>
@@ -12277,8 +12277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12381,7 +12381,7 @@
     </row>
     <row r="7" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="59" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B7" s="62" t="s">
         <v>457</v>
@@ -12711,8 +12711,8 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="91" t="s">
-        <v>541</v>
+      <c r="A36" s="77" t="s">
+        <v>540</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -12723,7 +12723,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C37">
         <v>65</v>
@@ -12731,7 +12731,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C38">
         <v>97</v>
